--- a/PythonSeleniumProject1/LearningSelenium/Products.xlsx
+++ b/PythonSeleniumProject1/LearningSelenium/Products.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="270" yWindow="630" windowWidth="20775" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="270" yWindow="630" windowWidth="20775" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Entries" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="srno" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -412,10 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -423,585 +424,651 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\19 (4).jpg 880</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\15 (5).jpg 88</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\19.jpg 881</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\29 (3).jpg 89</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\19 (3).jpg 879</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\29.jpg 90</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\1 (5).jpg 813</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3 (2).jpg 91</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\1 (6).jpg 814</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3 (3).jpg 92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\1 (7).jpg 815</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3 (4).jpg 93</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\1 (8).jpg 816</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3 (5).jpg 94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\1.jpg 817</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3 (6).jpg 95</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\10 (2).jpg 818</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3.jpg 96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\10 (3).jpg 819</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\30 (2).jpg 97</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\10 (4).jpg 820</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\30 (3).jpg 98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\10 (5).jpg 821</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\30.jpg 99</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\10 (6).jpg 822</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\31 (2).jpg 100</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\10 (7).jpg 823</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\31 (3).jpg 101</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\10 (8).jpg 824</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\31.jpg 102</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\10.jpg 825</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4 (2).jpg 103</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\11 (2).jpg 826</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4 (3).jpg 104</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\11 (3).jpg 827</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4 (4).jpg 105</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\11 (4).jpg 828</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4 (5).jpg 106</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\11 (5).jpg 829</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4 (6).jpg 107</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\11 (6).jpg 830</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4.jpg 108</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\11 (7).jpg 831</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5 (2).jpg 109</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\11 (8).jpg 832</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5 (3).jpg 110</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\11.jpg 833</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5 (4).jpg 111</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\12 (2).jpg 834</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5 (5).jpg 112</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\12 (3).jpg 835</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5 (6).jpg 113</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\12 (4).jpg 836</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5.jpg 114</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\12 (5).jpg 837</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6 (2).jpg 115</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\12 (6).jpg 838</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6 (3).jpg 116</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\12 (7).jpg 839</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6 (4).jpg 117</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\12 (8).jpg 840</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6 (5).jpg 118</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\12.jpg 841</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6 (6).jpg 119</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\13 (2).jpg 842</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6.jpg 120</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\13 (3).jpg 843</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\7 (2).jpg 121</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\13 (4).jpg 844</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\7 (3).jpg 122</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\13 (5).jpg 845</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\7 (4).jpg 123</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\13 (6).jpg 846</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\7 (5).jpg 124</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\13 (7).jpg 847</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\7.jpg 125</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\13 (8).jpg 848</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\8 (3).jpg 126</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\13.jpg 849</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\8 (4).jpg 127</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\14 (2).jpg 850</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\8 (5).jpg 128</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\14 (3).jpg 851</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\8 (6).jpg 129</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\14 (4).jpg 852</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\8.jpg 130</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\14 (5).jpg 853</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9 (2).jpg 131</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\14 (6).jpg 854</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9 (3).jpg 132</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\14 (7).jpg 855</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9 (4).jpg 133</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\14 (8).jpg 856</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9 (5).jpg 134</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\14.jpg 857</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9 (6).jpg 135</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\15 (2).jpg 858</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9.jpg 136</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\15 (3).jpg 859</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\4.jpg 144</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\15 (4).jpg 860</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (2).jpg 145</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\15 (5).jpg 861</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (3).jpg 146</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\15 (6).jpg 862</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (4).jpg 147</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\15 (7).jpg 863</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (5).jpg 148</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\15 (8).jpg 864</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (6).jpg 149</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\15.jpg 865</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (7).jpg 150</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\16 (2).jpg 866</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (8).jpg 151</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\16 (3).jpg 867</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5.jpg 152</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\16 (4).jpg 868</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (2).jpg 153</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\16.jpg 869</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (3).jpg 154</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\17 (2).jpg 870</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (4).jpg 155</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\17 (3).jpg 871</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (5).jpg 156</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\17 (4).jpg 872</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (6).jpg 157</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\17.jpg 873</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (7).jpg 158</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\18 (2).jpg 874</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (8).jpg 159</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\809 + cp\\images\\18 (3).jpg 875</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6.jpg 160</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\8 (3).jpg 1771</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7 (2).jpg 161</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\8 (4).jpg 1772</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7 (3).jpg 162</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\8 (5).jpg 1773</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7 (4).jpg 163</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\8 (7).jpg 1774</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7 (5).jpg 164</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\8 (8).jpg 1775</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7 (6).jpg 165</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\8 (9).jpg 1776</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7.jpg 166</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\8.jpg 1777</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (2).jpg 167</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\9 (12).jpg 1778</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (3).jpg 168</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\9 (13).jpg 1779</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (4).jpg 169</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\9 (14).jpg 1780</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (5).jpg 170</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\9 (15).jpg 1781</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (6).jpg 171</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\9 (2).jpg 1782</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (7).jpg 172</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\9 (3).jpg 1783</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (8).jpg 173</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\9 (4).jpg 1784</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8.jpg 174</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\24 (7).jpg 1664</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (2).jpg 175</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\24 (8).jpg 1665</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (3).jpg 176</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2025\\images\\24.jpg 1666</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (4).jpg 177</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (5).jpg 178</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (6).jpg 179</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (7).jpg 180</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (8).jpg 181</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9.jpg 182</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6.jpg 160</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PythonSeleniumProject1/LearningSelenium/Products.xlsx
+++ b/PythonSeleniumProject1/LearningSelenium/Products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A89"/>
+  <dimension ref="A1:A110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,623 +424,770 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\15 (5).jpg 88</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\10 (2).jpg 1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\29 (3).jpg 89</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\15.jpg 2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\29.jpg 90</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\45.jpg 3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3 (2).jpg 91</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\46 (2).jpg 4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3 (3).jpg 92</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\11.jpg 5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3 (4).jpg 93</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\12 (2).jpg 6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3 (5).jpg 94</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\12.jpg 7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3 (6).jpg 95</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\13 (2).jpg 8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\3.jpg 96</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\13.jpg 9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\30 (2).jpg 97</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\14 (2).jpg 10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\30 (3).jpg 98</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\14.jpg 11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\30.jpg 99</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\15 (2).jpg 12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\31 (2).jpg 100</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\16 (2).jpg 13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\31 (3).jpg 101</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\16.jpg 14</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\31.jpg 102</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\17 (2).jpg 15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4 (2).jpg 103</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\17.jpg 16</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4 (3).jpg 104</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\18 (2).jpg 17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4 (4).jpg 105</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\18.jpg 18</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4 (5).jpg 106</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\19 (2).jpg 19</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4 (6).jpg 107</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\19.jpg 20</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\4.jpg 108</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\2 (2).jpg 21</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5 (2).jpg 109</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\2.jpg 22</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5 (3).jpg 110</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\20 (2).jpg 23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5 (4).jpg 111</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\20.jpg 24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5 (5).jpg 112</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\21 (2).jpg 25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5 (6).jpg 113</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\21.jpg 26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\5.jpg 114</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\22 (2).jpg 27</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6 (2).jpg 115</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\22.jpg 28</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6 (3).jpg 116</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\23 (2).jpg 29</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6 (4).jpg 117</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\23.jpg 30</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6 (5).jpg 118</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\24 (2).jpg 31</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6 (6).jpg 119</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\24.jpg 32</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\6.jpg 120</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\25 (2).jpg 33</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\7 (2).jpg 121</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\25.jpg 34</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\7 (3).jpg 122</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\26 (2).jpg 35</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\7 (4).jpg 123</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\26.jpg 36</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\7 (5).jpg 124</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\27 (2).jpg 37</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\7.jpg 125</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\27.jpg 38</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\8 (3).jpg 126</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\28 (2).jpg 39</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\8 (4).jpg 127</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\28.jpg 40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\8 (5).jpg 128</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\29 (2).jpg 41</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\8 (6).jpg 129</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\29.jpg 42</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\8.jpg 130</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\3 (2).jpg 43</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9 (2).jpg 131</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\3.jpg 44</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9 (3).jpg 132</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\30 (2).jpg 45</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9 (4).jpg 133</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\30.jpg 46</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9 (5).jpg 134</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\31 (2).jpg 47</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9 (6).jpg 135</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\31.jpg 48</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + mini + cp\\images\\9.jpg 136</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\32 (2).jpg 49</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\4.jpg 144</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\32.jpg 50</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (2).jpg 145</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\33 (2).jpg 51</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (3).jpg 146</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\33.jpg 52</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (4).jpg 147</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\34 (2).jpg 53</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (5).jpg 148</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\34.jpg 54</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (6).jpg 149</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\35 (2).jpg 55</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (7).jpg 150</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\35.jpg 56</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5 (8).jpg 151</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\36 (2).jpg 57</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\5.jpg 152</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\36.jpg 58</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (2).jpg 153</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\37 (2).jpg 59</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (3).jpg 154</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\37.jpg 60</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (4).jpg 155</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\38 (2).jpg 61</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (5).jpg 156</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\38.jpg 62</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (6).jpg 157</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\39 (2).jpg 63</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (7).jpg 158</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\39.jpg 64</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6 (8).jpg 159</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\4 (2).jpg 65</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6.jpg 160</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\4.jpg 66</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7 (2).jpg 161</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\40 (2).jpg 67</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7 (3).jpg 162</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\40.jpg 68</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7 (4).jpg 163</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\41 (2).jpg 69</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7 (5).jpg 164</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\41.jpg 70</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7 (6).jpg 165</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\42 (2).jpg 71</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\7.jpg 166</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\42.jpg 72</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (2).jpg 167</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\43 (2).jpg 73</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (3).jpg 168</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\43.jpg 74</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (4).jpg 169</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\44 (2).jpg 75</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (5).jpg 170</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\44.jpg 76</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (6).jpg 171</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\45 (2).jpg 77</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (7).jpg 172</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 + 471 + cp\\images\\6 (4).jpg 78</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8 (8).jpg 173</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 + 471 + cp\\images\\6.jpg 79</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\8.jpg 174</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 + 471 + cp\\images\\7 (2).jpg 80</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (2).jpg 175</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 + 471 + cp\\images\\7.jpg 81</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (3).jpg 176</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\7.jpg 82</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (4).jpg 177</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\8 (2).jpg 83</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (5).jpg 178</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\8 (3).jpg 84</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (6).jpg 179</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\8 (4).jpg 85</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (7).jpg 180</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\8.jpg 86</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9 (8).jpg 181</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\9 (2).jpg 87</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\9.jpg 182</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\9 (3).jpg 88</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 2009 +cp\\images\\6.jpg 160</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\9 (4).jpg 89</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\9.jpg 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\24 (4).jpg 122</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\24 (5).jpg 123</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\24.jpg 124</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\25 (2).jpg 125</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\25 (3).jpg 126</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\25 (4).jpg 127</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\25 (5).jpg 128</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\25.jpg 129</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\26 (2).jpg 130</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\26 (3).jpg 131</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\26 (4).jpg 132</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\26 (5).jpg 133</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\26.jpg 134</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\27 (2).jpg 135</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\27 (3).jpg 136</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\27 (4).jpg 137</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\27 (5).jpg 138</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\27.jpg 139</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\28 (2).jpg 140</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\28 (3).jpg 141</t>
         </is>
       </c>
     </row>
@@ -1058,14 +1205,14 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PythonSeleniumProject1/LearningSelenium/Products.xlsx
+++ b/PythonSeleniumProject1/LearningSelenium/Products.xlsx
@@ -424,518 +424,518 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\10 (2).jpg 1</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\1.jpg 50</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\15.jpg 2</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\10.jpg 51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\45.jpg 3</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\12.jpg 52</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\46 (2).jpg 4</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\13.jpg 53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\11.jpg 5</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\14.jpg 54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\12 (2).jpg 6</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\15.jpg 55</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\12.jpg 7</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\16.jpg 56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\13 (2).jpg 8</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\17.jpg 57</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\13.jpg 9</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\18.jpg 58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\14 (2).jpg 10</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\19.jpg 59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\14.jpg 11</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\2.jpg 60</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\15 (2).jpg 12</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\20.jpg 61</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\16 (2).jpg 13</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\21.jpg 62</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\16.jpg 14</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\22.jpg 63</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\17 (2).jpg 15</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\23.jpg 64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\17.jpg 16</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\24.jpg 65</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\18 (2).jpg 17</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\25.jpg 66</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\18.jpg 18</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\26.jpg 67</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\19 (2).jpg 19</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\27.jpg 68</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\19.jpg 20</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\28.jpg 69</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\2 (2).jpg 21</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\29.jpg 70</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\2.jpg 22</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\3.jpg 71</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\20 (2).jpg 23</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\30.jpg 72</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\20.jpg 24</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\31.jpg 73</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\21 (2).jpg 25</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\32.jpg 74</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\21.jpg 26</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\33.jpg 75</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\22 (2).jpg 27</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\34.jpg 76</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\22.jpg 28</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\35.jpg 77</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\23 (2).jpg 29</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\36.jpg 78</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\23.jpg 30</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\37.jpg 79</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\24 (2).jpg 31</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\38.jpg 80</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\24.jpg 32</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\39.jpg 81</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\25 (2).jpg 33</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\4.jpg 82</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\25.jpg 34</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\40.jpg 83</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\26 (2).jpg 35</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\41.jpg 84</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\26.jpg 36</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\42.jpg 85</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\27 (2).jpg 37</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\43.jpg 86</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\27.jpg 38</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\44.jpg 87</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\28 (2).jpg 39</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\45.jpg 88</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\28.jpg 40</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\46.jpg 89</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\29 (2).jpg 41</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\47.jpg 90</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\29.jpg 42</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\48.jpg 91</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\3 (2).jpg 43</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\49.jpg 92</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\3.jpg 44</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\5.jpg 93</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\30 (2).jpg 45</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\50.jpg 94</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\30.jpg 46</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\6.jpg 95</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\31 (2).jpg 47</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\7.jpg 96</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\31.jpg 48</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\8.jpg 97</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\32 (2).jpg 49</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\9.jpg 98</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\32.jpg 50</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\9.jpg 50</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\33 (2).jpg 51</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\41 (2).jpg 51</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\33.jpg 52</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\41.jpg 52</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\34 (2).jpg 53</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\42 (2).jpg 53</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\34.jpg 54</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\42.jpg 54</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\35 (2).jpg 55</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\43 (2).jpg 55</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\35.jpg 56</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\43.jpg 56</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\36 (2).jpg 57</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\44 (2).jpg 57</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\36.jpg 58</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\44.jpg 58</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\37 (2).jpg 59</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\45 (2).jpg 59</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\37.jpg 60</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\45.jpg 60</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\38 (2).jpg 61</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\46 (2).jpg 61</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\38.jpg 62</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\46.jpg 62</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\39 (2).jpg 63</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\47 (2).jpg 63</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\39.jpg 64</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\47.jpg 64</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\4 (2).jpg 65</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\48 (2).jpg 65</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\4.jpg 66</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\48.jpg 66</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\40 (2).jpg 67</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\49 (2).jpg 67</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\40.jpg 68</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\49.jpg 68</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\41 (2).jpg 69</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\5.jpg 69</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\41.jpg 70</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\50 (2).jpg 70</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\42 (2).jpg 71</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\50.jpg 71</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\42.jpg 72</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\6.jpg 72</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\43 (2).jpg 73</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\8.jpg 73</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\43.jpg 74</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\9.jpg 74</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/PythonSeleniumProject1/LearningSelenium/Products.xlsx
+++ b/PythonSeleniumProject1/LearningSelenium/Products.xlsx
@@ -424,700 +424,700 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\1.jpg 50</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\6.jpg 200</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\10.jpg 51</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\49.jpg 194</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\12.jpg 52</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\5.jpg 195</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\13.jpg 53</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\50.jpg 196</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\14.jpg 54</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\7.jpg 197</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\15.jpg 55</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\8.jpg 198</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\16.jpg 56</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\9.jpg 199</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\17.jpg 57</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\38.jpg 182</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\18.jpg 58</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\39.jpg 183</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\19.jpg 59</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\4.jpg 184</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\2.jpg 60</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\40.jpg 185</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\20.jpg 61</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\41.jpg 186</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\21.jpg 62</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\42.jpg 187</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\22.jpg 63</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\43.jpg 188</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\23.jpg 64</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\44.jpg 189</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\24.jpg 65</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\45.jpg 190</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\25.jpg 66</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\46.jpg 191</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\26.jpg 67</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\47.jpg 192</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\27.jpg 68</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\28.jpg 169</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\28.jpg 69</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\29.jpg 170</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\29.jpg 70</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\3.jpg 171</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\3.jpg 71</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\30.jpg 172</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\30.jpg 72</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\31.jpg 173</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\31.jpg 73</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\32.jpg 174</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\32.jpg 74</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\32.jpg 125</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\33.jpg 75</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\33.jpg 126</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\34.jpg 76</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\34.jpg 127</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\35.jpg 77</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\35.jpg 128</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\36.jpg 78</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\36.jpg 129</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\37.jpg 79</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\37.jpg 130</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\38.jpg 80</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\38.jpg 131</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\39.jpg 81</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\39.jpg 132</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\4.jpg 82</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\4.jpg 133</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\40.jpg 83</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\40.jpg 134</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\41.jpg 84</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\41.jpg 135</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\42.jpg 85</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\42.jpg 136</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\43.jpg 86</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\43.jpg 137</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\44.jpg 87</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\44.jpg 138</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\45.jpg 88</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\45.jpg 139</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\46.jpg 89</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\46.jpg 140</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\47.jpg 90</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\47.jpg 141</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\48.jpg 91</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\48.jpg 142</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\49.jpg 92</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\49.jpg 143</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\5.jpg 93</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\5.jpg 144</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\50.jpg 94</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\50.jpg 145</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\6.jpg 95</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\6.jpg 146</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\7.jpg 96</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\7.jpg 147</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\8.jpg 97</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\8.jpg 148</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\9.jpg 98</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s2+cp\\images\\9.jpg 149</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+s2\\images\\9.jpg 50</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\35 (2).jpg 50</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\41 (2).jpg 51</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\35.jpg 51</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\41.jpg 52</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\36 (2).jpg 52</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\42 (2).jpg 53</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\36.jpg 53</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\42.jpg 54</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\37 (2).jpg 54</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\43 (2).jpg 55</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\37.jpg 55</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\43.jpg 56</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\38 (2).jpg 56</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\44 (2).jpg 57</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\38.jpg 57</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\44.jpg 58</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\39 (2).jpg 58</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\45 (2).jpg 59</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\39.jpg 59</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\45.jpg 60</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\4 (2).jpg 60</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\46 (2).jpg 61</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\4.jpg 61</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\46.jpg 62</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\40 (2).jpg 62</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\47 (2).jpg 63</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\40.jpg 63</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\47.jpg 64</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\41 (2).jpg 64</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\48 (2).jpg 65</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\41.jpg 65</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\48.jpg 66</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\42 (2).jpg 66</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\49 (2).jpg 67</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\42.jpg 67</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\49.jpg 68</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\43 (2).jpg 68</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\5.jpg 69</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\43.jpg 69</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\50 (2).jpg 70</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\44 (2).jpg 70</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\50.jpg 71</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\44.jpg 71</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\6.jpg 72</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\45 (2).jpg 72</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\8.jpg 73</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\45.jpg 73</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\9.jpg 74</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\46 (2).jpg 74</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\44 (2).jpg 75</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\46.jpg 75</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\44.jpg 76</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\47 (2).jpg 76</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\b2+g3\\images\\45 (2).jpg 77</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\47.jpg 77</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 + 471 + cp\\images\\6 (4).jpg 78</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\48 (2).jpg 78</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 + 471 + cp\\images\\6.jpg 79</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\48.jpg 79</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 + 471 + cp\\images\\7 (2).jpg 80</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\49 (2).jpg 80</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 + 471 + cp\\images\\7.jpg 81</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\49.jpg 81</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\7.jpg 82</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\5 (2).jpg 82</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\8 (2).jpg 83</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\5.jpg 83</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\8 (3).jpg 84</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\50 (2).jpg 84</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\8 (4).jpg 85</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\49.jpg 85</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\8.jpg 86</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\5 (2).jpg 86</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\9 (2).jpg 87</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\5.jpg 87</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\9 (3).jpg 88</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\50 (2).jpg 88</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\9 (4).jpg 89</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\50.jpg 89</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\522 + mini + cp\\images\\9.jpg 90</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\6 (2).jpg 90</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\24 (4).jpg 122</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\6.jpg 91</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\24 (5).jpg 123</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\7 (2).jpg 92</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\24.jpg 124</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\7.jpg 93</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\25 (2).jpg 125</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\8 (2).jpg 94</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\25 (3).jpg 126</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\8.jpg 95</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\25 (4).jpg 127</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\9 (2).jpg 96</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\25 (5).jpg 128</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g4+w2+s1+cp\\images\\9.jpg 97</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\25.jpg 129</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g3+s2\\images\\9 (2).jpg 98</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\26 (2).jpg 130</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g3+s2\\images\\9.jpg 99</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\1290 + 216 +cp\\images\\26 (3).jpg 131</t>
+          <t>C:\\Users\\bhatt\\Downloads\\Telegram Desktop\\g3+s1\\images\\9.jpg 100</t>
         </is>
       </c>
     </row>
@@ -1205,14 +1205,14 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>99</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
